--- a/Incentive_COM/result/Trần Tiến Đức.xlsx
+++ b/Incentive_COM/result/Trần Tiến Đức.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="83">
   <si>
     <t>KAM/KAE (Full name)</t>
   </si>
@@ -95,19 +95,13 @@
     <t>SAMSUNG</t>
   </si>
   <si>
-    <t>TH TRUE MART</t>
+    <t>BOSCH</t>
   </si>
   <si>
     <t>BROTHER</t>
   </si>
   <si>
-    <t>BOSCH</t>
-  </si>
-  <si>
-    <t>LG</t>
-  </si>
-  <si>
-    <t>BEKO</t>
+    <t>WIPRO UNZA</t>
   </si>
   <si>
     <t>PANASONIC - SHOPEE</t>
@@ -125,13 +119,13 @@
     <t>PANASONIC - TIKI</t>
   </si>
   <si>
-    <t>TH TRUE MART - SHOPEE</t>
-  </si>
-  <si>
-    <t>TH TRUE MART - LAZADA</t>
-  </si>
-  <si>
-    <t>TH TRUE MART - TIKI</t>
+    <t>BOSCH - LAZADA</t>
+  </si>
+  <si>
+    <t>BOSCH - SHOPEE</t>
+  </si>
+  <si>
+    <t>BOSCH - TIKI</t>
   </si>
   <si>
     <t>BROTHER - SHOPEE</t>
@@ -143,16 +137,10 @@
     <t>BROTHER - LAZADA</t>
   </si>
   <si>
-    <t>BOSCH - LAZADA</t>
-  </si>
-  <si>
-    <t>BOSCH - SHOPEE</t>
-  </si>
-  <si>
-    <t>BOSCH - TIKI</t>
-  </si>
-  <si>
-    <t>LG - SHOPEE</t>
+    <t>AIKEN - LAZADA</t>
+  </si>
+  <si>
+    <t>ROMANO - LAZADA</t>
   </si>
   <si>
     <t>SAMSUNG - LAZADA</t>
@@ -161,18 +149,12 @@
     <t>SAMSUNG CE - LAZADA</t>
   </si>
   <si>
-    <t>BEKO - B2B</t>
-  </si>
-  <si>
     <t>B2C</t>
   </si>
   <si>
     <t>KAM</t>
   </si>
   <si>
-    <t>B2B</t>
-  </si>
-  <si>
     <t>Trần Tiến Đức</t>
   </si>
   <si>
@@ -182,88 +164,82 @@
     <t xml:space="preserve">Trần Thị Tường Vân </t>
   </si>
   <si>
+    <t>Trần Minh Duy</t>
+  </si>
+  <si>
     <t>0.00%</t>
   </si>
   <si>
-    <t>100.00%</t>
-  </si>
-  <si>
-    <t>79.80%</t>
-  </si>
-  <si>
-    <t>25.29%</t>
-  </si>
-  <si>
-    <t>68.83%</t>
-  </si>
-  <si>
-    <t>73.24%</t>
-  </si>
-  <si>
-    <t>37.50%</t>
-  </si>
-  <si>
-    <t>48.81%</t>
-  </si>
-  <si>
-    <t>122.28%</t>
-  </si>
-  <si>
-    <t>30.82%</t>
-  </si>
-  <si>
-    <t>119.05%</t>
-  </si>
-  <si>
-    <t>92.33%</t>
-  </si>
-  <si>
-    <t>45.51%</t>
-  </si>
-  <si>
-    <t>68.97%</t>
-  </si>
-  <si>
-    <t>56.33%</t>
-  </si>
-  <si>
-    <t>49.44%</t>
-  </si>
-  <si>
-    <t>31.12%</t>
-  </si>
-  <si>
-    <t>20.77%</t>
-  </si>
-  <si>
-    <t>34.76%</t>
-  </si>
-  <si>
-    <t>72.50%</t>
-  </si>
-  <si>
-    <t>68.30%</t>
-  </si>
-  <si>
-    <t>40.95%</t>
-  </si>
-  <si>
-    <t>6154.50%</t>
-  </si>
-  <si>
-    <t>432.98%</t>
-  </si>
-  <si>
-    <t>845.63%</t>
-  </si>
-  <si>
-    <t>88.00%</t>
-  </si>
-  <si>
-    <t>-0.15%</t>
-  </si>
-  <si>
-    <t>15.52%</t>
+    <t>165.95%</t>
+  </si>
+  <si>
+    <t>28.79%</t>
+  </si>
+  <si>
+    <t>77.94%</t>
+  </si>
+  <si>
+    <t>111.95%</t>
+  </si>
+  <si>
+    <t>408.27%</t>
+  </si>
+  <si>
+    <t>46.59%</t>
+  </si>
+  <si>
+    <t>73.46%</t>
+  </si>
+  <si>
+    <t>127.44%</t>
+  </si>
+  <si>
+    <t>44.90%</t>
+  </si>
+  <si>
+    <t>64.75%</t>
+  </si>
+  <si>
+    <t>68.42%</t>
+  </si>
+  <si>
+    <t>37.36%</t>
+  </si>
+  <si>
+    <t>36.53%</t>
+  </si>
+  <si>
+    <t>4.49%</t>
+  </si>
+  <si>
+    <t>89.13%</t>
+  </si>
+  <si>
+    <t>74.85%</t>
+  </si>
+  <si>
+    <t>5.64%</t>
+  </si>
+  <si>
+    <t>81.05%</t>
+  </si>
+  <si>
+    <t>63.30%</t>
+  </si>
+  <si>
+    <t>125.02%</t>
+  </si>
+  <si>
+    <t>73.14%</t>
+  </si>
+  <si>
+    <t>78.09%</t>
+  </si>
+  <si>
+    <t>17.02%</t>
+  </si>
+  <si>
+    <t>82.98%</t>
   </si>
   <si>
     <t>Name</t>
@@ -272,16 +248,22 @@
     <t>Incentive</t>
   </si>
   <si>
-    <t>61.95%</t>
-  </si>
-  <si>
-    <t>64.76%</t>
-  </si>
-  <si>
-    <t>119.95%</t>
-  </si>
-  <si>
-    <t>4.00%</t>
+    <t>112.86%</t>
+  </si>
+  <si>
+    <t>113.15%</t>
+  </si>
+  <si>
+    <t>72.54%</t>
+  </si>
+  <si>
+    <t>26.00%</t>
+  </si>
+  <si>
+    <t>50.00%</t>
+  </si>
+  <si>
+    <t>20.00%</t>
   </si>
 </sst>
 </file>
@@ -660,7 +642,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,16 +715,16 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -751,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J2" s="2">
-        <v>201149</v>
+        <v>83045</v>
       </c>
       <c r="K2" s="2">
-        <v>252075</v>
+        <v>50042.99999999999</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
@@ -769,19 +751,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="P2" s="2">
-        <v>10278.7139</v>
+        <v>4235.295</v>
       </c>
       <c r="Q2" s="2">
-        <v>12881.0325</v>
+        <v>2552.192999999999</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -792,35 +774,35 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="2">
+        <v>3938</v>
+      </c>
+      <c r="K3" s="2">
+        <v>13680</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="2">
-        <v>25136</v>
-      </c>
-      <c r="K3" s="2">
-        <v>99400</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="M3" s="2">
         <v>0</v>
       </c>
@@ -828,19 +810,19 @@
         <v>0</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="P3" s="2">
-        <v>754.0799999999999</v>
+        <v>118.14</v>
       </c>
       <c r="Q3" s="2">
-        <v>2982</v>
+        <v>410.4</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -851,16 +833,16 @@
         <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -869,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J4" s="2">
-        <v>15623</v>
+        <v>35853</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>46000</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
@@ -887,19 +869,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="P4" s="2">
-        <v>468.69</v>
+        <v>1075.59</v>
       </c>
       <c r="Q4" s="2">
-        <v>0</v>
+        <v>1380</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -913,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -928,16 +910,16 @@
         <v>0</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J5" s="3">
-        <v>241908</v>
+        <v>122836</v>
       </c>
       <c r="K5" s="3">
-        <v>351475</v>
+        <v>109723</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="M5" s="3">
         <v>0</v>
@@ -946,19 +928,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="P5" s="3">
-        <v>11501.4839</v>
+        <v>5429.025000000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>15863.0325</v>
+        <v>4342.592999999999</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -969,16 +951,16 @@
         <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -987,17 +969,17 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="2">
+        <v>106151</v>
+      </c>
+      <c r="K6" s="2">
+        <v>26000.07999999998</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="2">
-        <v>143586</v>
-      </c>
-      <c r="K6" s="2">
-        <v>196060</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="M6" s="2">
         <v>0</v>
       </c>
@@ -1005,19 +987,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="2">
+        <v>5413.701</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1326.004079999999</v>
+      </c>
+      <c r="R6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P6" s="2">
-        <v>7337.2446</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>10018.666</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="S6" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1031,7 +1013,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -1046,17 +1028,17 @@
         <v>0</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="3">
+        <v>106151</v>
+      </c>
+      <c r="K7" s="3">
+        <v>26000.07999999998</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="3">
-        <v>143586</v>
-      </c>
-      <c r="K7" s="3">
-        <v>196060</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="M7" s="3">
         <v>0</v>
       </c>
@@ -1064,19 +1046,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" s="3">
+        <v>5413.701</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>1326.004079999999</v>
+      </c>
+      <c r="R7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="P7" s="3">
-        <v>7337.2446</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>10018.666</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="S7" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1087,16 +1069,16 @@
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -1105,16 +1087,16 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J8" s="2">
-        <v>38434</v>
+        <v>10317</v>
       </c>
       <c r="K8" s="2">
-        <v>102500</v>
+        <v>22142.0937932</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
@@ -1123,98 +1105,98 @@
         <v>0</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="P8" s="2">
-        <v>1963.9774</v>
+        <v>526.1669999999999</v>
       </c>
       <c r="Q8" s="2">
-        <v>5237.75</v>
+        <v>1129.2467834532</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="3">
-        <v>38434</v>
-      </c>
-      <c r="K9" s="3">
-        <v>102500</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P9" s="3">
-        <v>1963.9774</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>5237.75</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>55</v>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="2">
+        <v>8527</v>
+      </c>
+      <c r="K9" s="2">
+        <v>11607</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1151.145</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>1566.945</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -1223,16 +1205,16 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J10" s="2">
-        <v>138091</v>
+        <v>7654</v>
       </c>
       <c r="K10" s="2">
-        <v>282889</v>
+        <v>6006</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
@@ -1241,39 +1223,39 @@
         <v>0</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="P10" s="2">
-        <v>12013.917</v>
+        <v>1033.29</v>
       </c>
       <c r="Q10" s="2">
-        <v>24611.343</v>
+        <v>810.8100000000001</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
@@ -1282,16 +1264,16 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J11" s="2">
-        <v>176844</v>
+        <v>1715</v>
       </c>
       <c r="K11" s="2">
-        <v>144622</v>
+        <v>3820</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
@@ -1300,78 +1282,78 @@
         <v>0</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="P11" s="2">
-        <v>15385.428</v>
+        <v>231.525</v>
       </c>
       <c r="Q11" s="2">
-        <v>12582.114</v>
+        <v>515.7</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="2">
-        <v>26966</v>
-      </c>
-      <c r="K12" s="2">
-        <v>87489</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="P12" s="2">
-        <v>2346.042</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>7611.543</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>77</v>
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="3">
+        <v>28213</v>
+      </c>
+      <c r="K12" s="3">
+        <v>43575.0937932</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P12" s="3">
+        <v>2942.127</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>4022.7017834532</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1382,16 +1364,16 @@
         <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
@@ -1400,16 +1382,16 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J13" s="2">
-        <v>40918</v>
+        <v>10592</v>
       </c>
       <c r="K13" s="2">
-        <v>34370</v>
+        <v>15480</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
@@ -1418,19 +1400,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="P13" s="2">
-        <v>2528.7324</v>
+        <v>752.0319999999999</v>
       </c>
       <c r="Q13" s="2">
-        <v>2124.066</v>
+        <v>1099.08</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1441,16 +1423,16 @@
         <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
@@ -1459,16 +1441,16 @@
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J14" s="2">
-        <v>13388</v>
+        <v>3752</v>
       </c>
       <c r="K14" s="2">
-        <v>14500</v>
+        <v>10042</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
@@ -1477,19 +1459,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="P14" s="2">
-        <v>827.3784000000001</v>
+        <v>266.392</v>
       </c>
       <c r="Q14" s="2">
-        <v>896.1</v>
+        <v>712.982</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1500,135 +1482,135 @@
         <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="2">
+        <v>6612</v>
+      </c>
+      <c r="K15" s="2">
+        <v>18100</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P15" s="2">
+        <v>469.4519999999999</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>1285.1</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" s="2">
-        <v>14189</v>
-      </c>
-      <c r="K15" s="2">
-        <v>31180</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="P15" s="2">
-        <v>876.8802000000001</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>1926.924</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="3">
-        <v>2</v>
-      </c>
-      <c r="C16" s="3">
-        <v>6</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="3">
-        <v>2</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J16" s="3">
-        <v>410396</v>
-      </c>
-      <c r="K16" s="3">
-        <v>595050</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M16" s="3">
-        <v>0</v>
-      </c>
-      <c r="N16" s="3">
-        <v>0</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P16" s="3">
-        <v>33978.378</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>49752.08999999999</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>79</v>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="2">
+        <v>400</v>
+      </c>
+      <c r="K16" s="2">
+        <v>8916</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P16" s="2">
+        <v>50.8</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>1132.332</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="G17" s="2">
         <v>0</v>
       </c>
@@ -1636,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J17" s="2">
-        <v>12476</v>
+        <v>112128</v>
       </c>
       <c r="K17" s="2">
-        <v>22150</v>
+        <v>125796</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
@@ -1654,78 +1636,78 @@
         <v>0</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="P17" s="2">
-        <v>1072.936</v>
+        <v>14240.256</v>
       </c>
       <c r="Q17" s="2">
-        <v>1904.9</v>
+        <v>15976.092</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J18" s="2">
-        <v>8257</v>
-      </c>
-      <c r="K18" s="2">
-        <v>16700</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2">
-        <v>0</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="P18" s="2">
-        <v>710.102</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>1436.2</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>80</v>
+      <c r="A18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="3">
+        <v>133484</v>
+      </c>
+      <c r="K18" s="3">
+        <v>178334</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P18" s="3">
+        <v>15778.932</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>20205.586</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1733,19 +1715,19 @@
         <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G19" s="2">
         <v>0</v>
@@ -1754,16 +1736,16 @@
         <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J19" s="2">
-        <v>2536</v>
+        <v>712</v>
       </c>
       <c r="K19" s="2">
-        <v>8150</v>
+        <v>12625</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
@@ -1772,19 +1754,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="P19" s="2">
-        <v>218.096</v>
+        <v>21.36</v>
       </c>
       <c r="Q19" s="2">
-        <v>700.9</v>
+        <v>378.75</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -1792,294 +1774,117 @@
         <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="2">
+        <v>33232</v>
+      </c>
+      <c r="K20" s="2">
+        <v>41000</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P20" s="2">
+        <v>996.9599999999999</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>1230</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J20" s="2">
-        <v>1107</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0</v>
-      </c>
-      <c r="N20" s="2">
-        <v>0</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="P20" s="2">
-        <v>82.13947048940055</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>0</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="A21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J21" s="2">
-        <v>20896</v>
-      </c>
-      <c r="K21" s="2">
-        <v>100600</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M21" s="2">
-        <v>0</v>
-      </c>
-      <c r="N21" s="2">
-        <v>0</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="P21" s="2">
-        <v>626.88</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>3018</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J22" s="2">
-        <v>6037</v>
-      </c>
-      <c r="K22" s="2">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M22" s="2">
-        <v>0</v>
-      </c>
-      <c r="N22" s="2">
-        <v>0</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="P22" s="2">
-        <v>181.11</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>0</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="S22" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" s="2">
-        <v>31297</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J23" s="2">
-        <v>0</v>
-      </c>
-      <c r="K23" s="2">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M23" s="2">
-        <v>625.9400000000001</v>
-      </c>
-      <c r="N23" s="2">
-        <v>0</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="P23" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>0</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="S23" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
-      <c r="A24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3">
-        <v>4</v>
-      </c>
-      <c r="C24" s="3">
-        <v>7</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="E21" s="3">
         <v>1</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F21" s="3">
         <v>1</v>
       </c>
-      <c r="G24" s="3">
-        <v>31297</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J24" s="3">
-        <v>51309</v>
-      </c>
-      <c r="K24" s="3">
-        <v>147600</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M24" s="3">
-        <v>625.9400000000001</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="P24" s="3">
-        <v>2891.263470489401</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>7060</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>82</v>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="3">
+        <v>33944</v>
+      </c>
+      <c r="K21" s="3">
+        <v>53625</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P21" s="3">
+        <v>1018.32</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>1608.75</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2097,7 +1902,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -2139,7 +1944,7 @@
         <v>18</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -2150,31 +1955,31 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2">
-        <v>241908</v>
+        <v>122836</v>
       </c>
       <c r="F2" s="2">
-        <v>351475</v>
+        <v>109723</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2">
-        <v>11501.4839</v>
+        <v>5429.025000000001</v>
       </c>
       <c r="L2" s="2">
-        <v>15863.0325</v>
+        <v>4342.592999999999</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2185,31 +1990,31 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2">
-        <v>143586</v>
+        <v>106151</v>
       </c>
       <c r="F3" s="2">
-        <v>196060</v>
+        <v>26000.07999999998</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2">
-        <v>7337.2446</v>
+        <v>5413.701</v>
       </c>
       <c r="L3" s="2">
-        <v>10018.666</v>
+        <v>1326.004079999999</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2220,31 +2025,31 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2">
-        <v>38434</v>
+        <v>28213</v>
       </c>
       <c r="F4" s="2">
-        <v>102500</v>
+        <v>43575.0937932</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2">
-        <v>1963.9774</v>
+        <v>2942.127</v>
       </c>
       <c r="L4" s="2">
-        <v>5237.75</v>
+        <v>4022.7017834532</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2255,125 +2060,101 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
-        <v>410396</v>
+        <v>133484</v>
       </c>
       <c r="F5" s="2">
-        <v>595050</v>
+        <v>178334</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2">
-        <v>33978.378</v>
+        <v>15778.932</v>
       </c>
       <c r="L5" s="2">
-        <v>49752.08999999999</v>
+        <v>20205.586</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="2">
-        <v>31297</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="2">
-        <v>51309</v>
+        <v>33944</v>
       </c>
       <c r="F6" s="2">
-        <v>147600</v>
+        <v>53625</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="2">
-        <v>625.9400000000001</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>56</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
       <c r="K6" s="2">
-        <v>2891.263470489401</v>
+        <v>1018.32</v>
       </c>
       <c r="L6" s="2">
-        <v>7060</v>
+        <v>1608.75</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="4">
-        <v>31297</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>56</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="4">
-        <v>543732</v>
+        <v>312100</v>
       </c>
       <c r="F7" s="4">
-        <v>877685</v>
+        <v>276545.1737931999</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" s="4">
-        <v>625.9400000000001</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>56</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="4">
-        <v>27926.96037048941</v>
+        <v>16291.049</v>
       </c>
       <c r="L7" s="4">
-        <v>43126.5385</v>
+        <v>14397.2108634532</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
